--- a/Code/test.xlsx
+++ b/Code/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\python\Fujitsu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\github\Share\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50651DD-B1EB-46A9-867E-8D9958F80229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D0D253-CC49-48DD-A296-8979B11DCAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="0" windowWidth="14415" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16650" yWindow="0" windowWidth="12150" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="67">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,26 @@
   </si>
   <si>
     <t>dgfs_torgerr_stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supervision Timeout(msec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive Flag Variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,22 +388,22 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -683,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
@@ -702,79 +722,79 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
@@ -785,29 +805,29 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -835,7 +855,7 @@
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="10">
+      <c r="B19" s="12">
         <v>1</v>
       </c>
       <c r="C19" s="4">
@@ -862,15 +882,15 @@
       <c r="J19" s="3">
         <v>1</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="4">
         <v>7</v>
       </c>
@@ -895,11 +915,11 @@
       <c r="J20" s="3">
         <v>1</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="4">
         <v>6</v>
       </c>
@@ -932,7 +952,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="4">
         <v>5</v>
       </c>
@@ -965,35 +985,35 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1004,15 +1024,15 @@
       <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
@@ -1021,31 +1041,31 @@
       <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="9" t="s">
+      <c r="F25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1056,18 +1076,18 @@
       <c r="C26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="10">
+      <c r="B27" s="12">
         <v>5</v>
       </c>
       <c r="C27" s="4">
@@ -1102,7 +1122,7 @@
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
@@ -1135,7 +1155,7 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="4" t="s">
         <v>28</v>
       </c>
@@ -1168,35 +1188,35 @@
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1207,15 +1227,15 @@
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
@@ -1245,8 +1265,8 @@
       <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
@@ -1295,17 +1315,25 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="B19:B23"/>
@@ -1322,25 +1350,17 @@
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1364,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A09B516-AF41-41DC-95C7-D94752F69FB9}">
-  <dimension ref="B6:L35"/>
+  <dimension ref="B6:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1426,603 +1446,625 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="11" t="s">
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L19" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="2" t="s">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
         <v>8</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="10" t="s">
+      <c r="F21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="4">
+      <c r="L21" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="12"/>
+      <c r="C22" s="4">
         <v>7</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="4">
+      <c r="F22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="12"/>
+      <c r="C23" s="4">
         <v>6</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="4">
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="12"/>
+      <c r="C24" s="4">
         <v>5</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="4" t="s">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="12"/>
+      <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="D25" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H25" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I25" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K25" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="3">
         <v>4</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="10">
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="12">
         <v>5</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C29" s="4">
         <v>8</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3" t="s">
+      <c r="F29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="4" t="s">
+      <c r="L29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="12"/>
+      <c r="C30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="4" t="s">
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="12"/>
+      <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="F31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="4" t="s">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="12"/>
+      <c r="C32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D32" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F32" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G32" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H32" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I32" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J32" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K32" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="3">
-        <v>6</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="3">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="L32" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="3">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>100</v>
+      </c>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="3">
         <v>8</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="3" t="s">
+      <c r="F35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C37" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B12:D12"/>
+  <mergeCells count="48">
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Code/test.xlsx
+++ b/Code/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\github\Share\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D0D253-CC49-48DD-A296-8979B11DCAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538D682B-129D-4741-BDB4-E5FC4832ED75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16650" yWindow="0" windowWidth="12150" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="72">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
   </si>
   <si>
     <t>Modulation Area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frame Select Area</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -307,6 +303,31 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Indicator Value
+(Receive Default Value)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive Parameter Invalid Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frame Select Flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,22 +409,22 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -704,7 +725,7 @@
   <dimension ref="B6:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="D37" sqref="D37:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,113 +743,113 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="8" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
       <c r="K17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -837,38 +858,38 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>1</v>
       </c>
       <c r="C19" s="4">
         <v>8</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -882,26 +903,26 @@
       <c r="J19" s="3">
         <v>1</v>
       </c>
-      <c r="K19" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>9</v>
+      <c r="K19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="12"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="4">
         <v>7</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="3">
         <v>1</v>
@@ -915,106 +936,106 @@
       <c r="J20" s="3">
         <v>1</v>
       </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="12"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="4">
         <v>6</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="4">
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="10"/>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-      <c r="C23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="13" t="s">
+      <c r="F23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" s="13" t="s">
+      <c r="K23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>9</v>
+      <c r="L23" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -1022,51 +1043,51 @@
         <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>3</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
@@ -1074,150 +1095,150 @@
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <v>5</v>
       </c>
       <c r="C27" s="4">
         <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3" t="s">
+      <c r="E28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="10"/>
+      <c r="C29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="12"/>
-      <c r="C28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="4" t="s">
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="10"/>
+      <c r="C30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="12"/>
-      <c r="C29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="F30" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="12"/>
-      <c r="C30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="13" t="s">
+      <c r="G30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J30" s="13" t="s">
+      <c r="K30" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>9</v>
+      <c r="L30" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
@@ -1225,36 +1246,36 @@
         <v>6</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>7</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1265,39 +1286,39 @@
       <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>8</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L33" s="3">
         <f>-G8</f>
@@ -1309,31 +1330,23 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="B19:B23"/>
@@ -1350,17 +1363,25 @@
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K23:K24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1384,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A09B516-AF41-41DC-95C7-D94752F69FB9}">
-  <dimension ref="B6:L37"/>
+  <dimension ref="B6:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1397,6 +1418,7 @@
     <col min="5" max="5" width="59.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
     <col min="12" max="12" width="26.625" customWidth="1"/>
+    <col min="13" max="13" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -1421,7 +1443,7 @@
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -1431,12 +1453,12 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1446,22 +1468,22 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -1471,7 +1493,7 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -1484,94 +1506,98 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
       <c r="K19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="12">
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="10">
         <v>1</v>
       </c>
       <c r="C21" s="4">
         <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
@@ -1585,26 +1611,29 @@
       <c r="J21" s="3">
         <v>1</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
+      <c r="K21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="10"/>
       <c r="C22" s="4">
         <v>7</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>1</v>
@@ -1618,55 +1647,61 @@
       <c r="J22" s="3">
         <v>1</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="10"/>
       <c r="C23" s="4">
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="10"/>
       <c r="C24" s="4">
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -1681,283 +1716,313 @@
         <v>1</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="10"/>
       <c r="C25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" s="13" t="s">
+      <c r="K25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>3</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="12">
+        <v>8</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" s="10">
         <v>5</v>
       </c>
       <c r="C29" s="4">
         <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="10"/>
+      <c r="C30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="E30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="10"/>
+      <c r="C31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="12"/>
-      <c r="C30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="M31" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="10"/>
+      <c r="C32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
-      <c r="C31" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="F32" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="12"/>
-      <c r="C32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="13" t="s">
+      <c r="G32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I32" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J32" s="13" t="s">
+      <c r="K32" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K32" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>6</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>7</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="F34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -1968,78 +2033,75 @@
       <c r="J34" s="3">
         <v>100</v>
       </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>8</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
       <c r="C37" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+  <mergeCells count="49">
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="K19:K20"/>
     <mergeCell ref="L19:L20"/>
@@ -2052,19 +2114,29 @@
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="L25:L26"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Code/test.xlsx
+++ b/Code/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538D682B-129D-4741-BDB4-E5FC4832ED75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379F2C29-BBB9-46FE-9D44-4ABF02403F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="495" windowWidth="33300" windowHeight="12135" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="3" r:id="rId1"/>
@@ -319,15 +319,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Receive Parameter Invalid Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Frame Select Flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive Parameter  Invalid Status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,22 +409,22 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -743,79 +743,79 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="8" t="s">
         <v>11</v>
       </c>
@@ -826,29 +826,29 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -876,7 +876,7 @@
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="10">
+      <c r="B19" s="12">
         <v>1</v>
       </c>
       <c r="C19" s="4">
@@ -903,15 +903,15 @@
       <c r="J19" s="3">
         <v>1</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="4">
         <v>7</v>
       </c>
@@ -936,11 +936,11 @@
       <c r="J20" s="3">
         <v>1</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="4">
         <v>6</v>
       </c>
@@ -973,7 +973,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="4">
         <v>5</v>
       </c>
@@ -1006,35 +1006,35 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1045,15 +1045,15 @@
       <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
@@ -1062,31 +1062,31 @@
       <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="9" t="s">
+      <c r="F25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1097,18 +1097,18 @@
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="10">
+      <c r="B27" s="12">
         <v>5</v>
       </c>
       <c r="C27" s="4">
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1176,7 +1176,7 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1209,35 +1209,35 @@
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1248,15 +1248,15 @@
       <c r="C31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
@@ -1286,8 +1286,8 @@
       <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
@@ -1336,17 +1336,25 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="B19:B23"/>
@@ -1363,25 +1371,17 @@
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1407,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A09B516-AF41-41DC-95C7-D94752F69FB9}">
   <dimension ref="B6:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C20"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1530,33 +1530,33 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="12" t="s">
-        <v>69</v>
+      <c r="M19" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
@@ -1584,7 +1584,7 @@
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="10">
+      <c r="B21" s="12">
         <v>1</v>
       </c>
       <c r="C21" s="4">
@@ -1611,18 +1611,18 @@
       <c r="J21" s="3">
         <v>1</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="12" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="4">
         <v>7</v>
       </c>
@@ -1647,14 +1647,14 @@
       <c r="J22" s="3">
         <v>1</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="4">
         <v>6</v>
       </c>
@@ -1686,11 +1686,11 @@
         <v>8</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="4">
         <v>5</v>
       </c>
@@ -1722,43 +1722,43 @@
         <v>52</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="13" t="s">
         <v>8</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
@@ -1768,17 +1768,17 @@
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
       <c r="M26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
@@ -1788,35 +1788,35 @@
       <c r="C27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="9" t="s">
+      <c r="F27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="13" t="s">
         <v>8</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
@@ -1826,21 +1826,21 @@
       <c r="C28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
       <c r="M28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="10">
+      <c r="B29" s="12">
         <v>5</v>
       </c>
       <c r="C29" s="4">
@@ -1874,11 +1874,11 @@
         <v>8</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="4" t="s">
         <v>26</v>
       </c>
@@ -1910,11 +1910,11 @@
         <v>8</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="4" t="s">
         <v>27</v>
       </c>
@@ -1946,43 +1946,43 @@
         <v>52</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L32" s="13" t="s">
         <v>8</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
@@ -1992,17 +1992,17 @@
       <c r="C33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
       <c r="M33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
@@ -2033,10 +2033,10 @@
       <c r="J34" s="3">
         <v>100</v>
       </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
       <c r="M34" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
@@ -2074,7 +2074,7 @@
         <v>54</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
@@ -2088,6 +2088,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="L25:L26"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B7:D7"/>
@@ -2104,39 +2137,6 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Code/test.xlsx
+++ b/Code/test.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379F2C29-BBB9-46FE-9D44-4ABF02403F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC011ED-808A-4465-84CD-327B8DB344CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="495" windowWidth="33300" windowHeight="12135" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="3" r:id="rId1"/>
     <sheet name="191" sheetId="1" r:id="rId2"/>
-    <sheet name="RxNormal" sheetId="4" r:id="rId3"/>
-    <sheet name="192" sheetId="2" r:id="rId4"/>
+    <sheet name="193" sheetId="5" r:id="rId3"/>
+    <sheet name="RxNormal" sheetId="4" r:id="rId4"/>
+    <sheet name="192" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="74">
   <si>
     <t>Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +329,14 @@
   </si>
   <si>
     <t>Receive Parameter  Invalid Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_CAN_GMLAN_TX_SEL_193</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,22 +418,22 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -743,79 +752,79 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="8" t="s">
         <v>11</v>
       </c>
@@ -826,29 +835,29 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
       <c r="K17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -876,7 +885,7 @@
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>1</v>
       </c>
       <c r="C19" s="4">
@@ -903,15 +912,15 @@
       <c r="J19" s="3">
         <v>1</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="12"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="4">
         <v>7</v>
       </c>
@@ -936,11 +945,11 @@
       <c r="J20" s="3">
         <v>1</v>
       </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="12"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="4">
         <v>6</v>
       </c>
@@ -973,7 +982,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="4">
         <v>5</v>
       </c>
@@ -1006,35 +1015,35 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1045,15 +1054,15 @@
       <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
@@ -1062,31 +1071,31 @@
       <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="13" t="s">
+      <c r="F25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1097,18 +1106,18 @@
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <v>5</v>
       </c>
       <c r="C27" s="4">
@@ -1143,7 +1152,7 @@
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="12"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1176,7 +1185,7 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="12"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1209,35 +1218,35 @@
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="12"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="K30" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1248,15 +1257,15 @@
       <c r="C31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
@@ -1286,8 +1295,8 @@
       <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
@@ -1336,25 +1345,17 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="B19:B23"/>
@@ -1371,17 +1372,25 @@
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="I25:I26"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K23:K24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1389,6 +1398,674 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0434B056-C7C5-4893-8CCA-203FF7DD5356}">
+  <dimension ref="B6:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="10"/>
+      <c r="C20" s="4">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="10"/>
+      <c r="C21" s="4">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="10"/>
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="10"/>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="10">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="10"/>
+      <c r="C29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="10"/>
+      <c r="C30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="3">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="3">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="3">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
+        <f>-G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A60496C-52DE-4E99-92C5-0B4D6BD67B16}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1403,12 +2080,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A09B516-AF41-41DC-95C7-D94752F69FB9}">
   <dimension ref="B6:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19:M20"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1530,32 +2207,32 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
       <c r="K19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1584,7 +2261,7 @@
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>1</v>
       </c>
       <c r="C21" s="4">
@@ -1611,10 +2288,10 @@
       <c r="J21" s="3">
         <v>1</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="10" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="2" t="s">
@@ -1622,7 +2299,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="4">
         <v>7</v>
       </c>
@@ -1647,14 +2324,14 @@
       <c r="J22" s="3">
         <v>1</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="4">
         <v>6</v>
       </c>
@@ -1690,7 +2367,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="12"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="4">
         <v>5</v>
       </c>
@@ -1726,35 +2403,35 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="12"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="9" t="s">
         <v>8</v>
       </c>
       <c r="M25" s="2" t="s">
@@ -1768,15 +2445,15 @@
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="2" t="s">
         <v>69</v>
       </c>
@@ -1788,31 +2465,31 @@
       <c r="C27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="13" t="s">
+      <c r="F27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="9" t="s">
         <v>8</v>
       </c>
       <c r="M27" s="2" t="s">
@@ -1826,21 +2503,21 @@
       <c r="C28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="12">
+      <c r="B29" s="10">
         <v>5</v>
       </c>
       <c r="C29" s="4">
@@ -1878,7 +2555,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="12"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="4" t="s">
         <v>26</v>
       </c>
@@ -1914,7 +2591,7 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="4" t="s">
         <v>27</v>
       </c>
@@ -1950,35 +2627,35 @@
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="12"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="9" t="s">
         <v>8</v>
       </c>
       <c r="M32" s="2" t="s">
@@ -1992,15 +2669,15 @@
       <c r="C33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="2" t="s">
         <v>69</v>
       </c>
@@ -2033,8 +2710,8 @@
       <c r="J34" s="3">
         <v>100</v>
       </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="2" t="s">
         <v>69</v>
       </c>
@@ -2088,39 +2765,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="L25:L26"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B7:D7"/>
@@ -2137,6 +2781,39 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
